--- a/database/data_to_add/2020-01-23jeff/clariidae_yatuha_2013.xlsx
+++ b/database/data_to_add/2020-01-23jeff/clariidae_yatuha_2013.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff.Wesner\Documents\GitHub\Freshwater-Fish-Diet-Database\database\data_to_add\2020-01-23jeff\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB22CFB9-466C-4EE1-904F-A34E32894492}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C867E78-4295-4C16-9074-DBDB9DF68978}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{2C0DB7DF-8C42-4AEA-84FF-DCB2A7585252}"/>
   </bookViews>
@@ -549,7 +549,7 @@
   <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
